--- a/data/funding_model_reference.xlsx
+++ b/data/funding_model_reference.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DiscountBasis</t>
+          <t>CSA_Type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CSA_Type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ModelVersion</t>
         </is>
@@ -468,22 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>USD-SOFR</t>
+          <t>USD-LIBOR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Act/360</t>
+          <t>Cleared</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cleared_CSA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>v2024.3</t>
+          <t>v2024.1</t>
         </is>
       </c>
     </row>
@@ -495,22 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USD-LIBOR</t>
+          <t>EUR-LIBOR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30/360</t>
+          <t>Bilateral</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Legacy_Margin</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>v2023.4</t>
+          <t>v2024.2</t>
         </is>
       </c>
     </row>
@@ -522,22 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USD-OIS</t>
+          <t>USD-LIBOR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Act/365F</t>
+          <t>Cleared</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bilateral</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>v2024.2</t>
+          <t>v2024.1</t>
         </is>
       </c>
     </row>
@@ -549,22 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USD-SOFR</t>
+          <t>EUR-LIBOR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Act/360</t>
+          <t>Bilateral</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cleared_CSA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>v2024.3</t>
+          <t>v2024.2</t>
         </is>
       </c>
     </row>
@@ -581,17 +556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30/360</t>
+          <t>Cleared</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bilateral</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>v2023.2</t>
+          <t>v2024.1</t>
         </is>
       </c>
     </row>
@@ -606,13 +576,12 @@
           <t>USD-LIBOR</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cleared</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>Cleared</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>v2024.1</t>
         </is>
@@ -629,13 +598,12 @@
           <t>EUR-LIBOR</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>Bilateral</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>v2024.2</t>
         </is>
@@ -652,13 +620,12 @@
           <t>USD-LIBOR</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cleared</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>Cleared</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>v2024.1</t>
         </is>
@@ -675,13 +642,12 @@
           <t>USD-LIBOR</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cleared</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>Cleared</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>v2024.3</t>
         </is>
@@ -698,13 +664,12 @@
           <t>EUR-LIBOR</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>Bilateral</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>v2024.2</t>
         </is>
@@ -721,13 +686,12 @@
           <t>USD-LIBOR</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cleared</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>Cleared</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>v2024.1</t>
         </is>
@@ -744,13 +708,12 @@
           <t>EUR-LIBOR</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>Bilateral</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>v2024.2</t>
         </is>
@@ -767,13 +730,12 @@
           <t>USD-LIBOR</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cleared</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>Cleared</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>v2024.3</t>
         </is>
@@ -790,13 +752,12 @@
           <t>EUR-LIBOR</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>Bilateral</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
         <is>
           <t>v2024.1</t>
         </is>
@@ -813,13 +774,12 @@
           <t>USD-LIBOR</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cleared</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>Cleared</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>v2024.2</t>
         </is>
@@ -828,21 +788,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>T006</t>
+          <t>T016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USD-LIBOR</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>EUR-LIBOR</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>Cleared</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>v2024.1</t>
         </is>
@@ -851,21 +810,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>T007</t>
+          <t>T017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EUR-LIBOR</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>USD-LIBOR</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cleared</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>Bilateral</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>v2024.2</t>
         </is>
@@ -874,21 +832,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>T008</t>
+          <t>T018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>USD-LIBOR</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>EUR-LIBOR</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
-        <is>
-          <t>Cleared</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
         <is>
           <t>v2024.1</t>
         </is>
@@ -897,7 +854,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>T009</t>
+          <t>T019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -905,13 +862,12 @@
           <t>USD-LIBOR</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Cleared</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>Cleared</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>v2024.3</t>
         </is>
@@ -920,7 +876,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>T010</t>
+          <t>T020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -928,13 +884,12 @@
           <t>EUR-LIBOR</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
-        <is>
-          <t>Bilateral</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
         <is>
           <t>v2024.2</t>
         </is>
@@ -943,7 +898,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>T011</t>
+          <t>T021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -951,13 +906,12 @@
           <t>USD-LIBOR</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cleared</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
-        <is>
-          <t>Cleared</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
         <is>
           <t>v2024.1</t>
         </is>
@@ -966,7 +920,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>T012</t>
+          <t>T022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -974,13 +928,12 @@
           <t>EUR-LIBOR</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
-        <is>
-          <t>Bilateral</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>v2024.2</t>
         </is>
@@ -989,7 +942,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>T013</t>
+          <t>T023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -997,13 +950,12 @@
           <t>USD-LIBOR</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cleared</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
-        <is>
-          <t>Cleared</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
         <is>
           <t>v2024.3</t>
         </is>
@@ -1012,7 +964,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>T014</t>
+          <t>T024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1020,13 +972,12 @@
           <t>EUR-LIBOR</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>Bilateral</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
         <is>
           <t>v2024.1</t>
         </is>
@@ -1035,7 +986,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>T015</t>
+          <t>T025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1043,13 +994,12 @@
           <t>USD-LIBOR</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cleared</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>Cleared</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
         <is>
           <t>v2024.2</t>
         </is>
